--- a/JupyterNotebooks/AveragedIntensities-SRP/CopperA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/CopperA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -449,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="V1" s="1">
         <v>20</v>
       </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,67 +546,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,67 +617,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.077694524495677</v>
+        <v>1.082161383285303</v>
       </c>
       <c r="D3">
-        <v>0.8925288184438041</v>
+        <v>0.9005979827089338</v>
       </c>
       <c r="E3">
-        <v>0.9890201729106628</v>
+        <v>0.9817939481268012</v>
       </c>
       <c r="F3">
-        <v>0.9821469740634006</v>
+        <v>0.983321325648415</v>
       </c>
       <c r="G3">
-        <v>1.077694524495677</v>
+        <v>1.082161383285303</v>
       </c>
       <c r="H3">
-        <v>0.8925288184438041</v>
+        <v>0.9005979827089338</v>
       </c>
       <c r="I3">
-        <v>1.01950288184438</v>
+        <v>1.016087896253602</v>
       </c>
       <c r="J3">
-        <v>0.9656123919308357</v>
+        <v>0.9638832853025937</v>
       </c>
       <c r="K3">
-        <v>1.0335734870317</v>
+        <v>1.034272334293948</v>
       </c>
       <c r="L3">
-        <v>0.9361743515850144</v>
+        <v>0.9404610951008645</v>
       </c>
       <c r="M3">
-        <v>1.077687319884726</v>
+        <v>1.082154178674352</v>
       </c>
       <c r="N3">
-        <v>1.077694524495677</v>
+        <v>1.082161383285303</v>
       </c>
       <c r="O3">
-        <v>0.9407744956772335</v>
+        <v>0.9817939481268012</v>
       </c>
       <c r="P3">
-        <v>0.9855835734870317</v>
+        <v>0.9411959654178674</v>
       </c>
       <c r="Q3">
-        <v>0.9864145052833814</v>
+        <v>0.9825576368876081</v>
       </c>
       <c r="R3">
-        <v>0.9545653218059558</v>
+        <v>0.9881844380403457</v>
       </c>
       <c r="S3">
-        <v>0.9864145052833814</v>
+        <v>0.9552377521613833</v>
       </c>
       <c r="T3">
-        <v>0.9853476224783861</v>
+        <v>0.9881844380403458</v>
       </c>
       <c r="U3">
-        <v>1.003817002881844</v>
+        <v>0.9869686599423632</v>
       </c>
       <c r="V3">
-        <v>0.9870317002881844</v>
+        <v>1.006007204610951</v>
+      </c>
+      <c r="W3">
+        <v>0.9878224063400577</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -664,67 +688,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9974977676067345</v>
+        <v>1.001019739608322</v>
       </c>
       <c r="D4">
-        <v>0.9793172559830957</v>
+        <v>0.9831326726267076</v>
       </c>
       <c r="E4">
-        <v>1.000742791160615</v>
+        <v>0.9960509519842181</v>
       </c>
       <c r="F4">
-        <v>0.9914341026178843</v>
+        <v>0.9920574798733447</v>
       </c>
       <c r="G4">
-        <v>0.9974977676067345</v>
+        <v>1.001019739608322</v>
       </c>
       <c r="H4">
-        <v>0.9793172559830957</v>
+        <v>0.9831326726267076</v>
       </c>
       <c r="I4">
-        <v>0.9990324997410241</v>
+        <v>0.9972227664010135</v>
       </c>
       <c r="J4">
-        <v>0.9951904932465701</v>
+        <v>0.9939189858118702</v>
       </c>
       <c r="K4">
-        <v>0.9962026468386158</v>
+        <v>0.9971927827177304</v>
       </c>
       <c r="L4">
-        <v>0.9848869424035974</v>
+        <v>0.9869878394325744</v>
       </c>
       <c r="M4">
-        <v>0.9975014183520952</v>
+        <v>1.001027041099043</v>
       </c>
       <c r="N4">
-        <v>0.9974977676067345</v>
+        <v>1.001019739608322</v>
       </c>
       <c r="O4">
-        <v>0.9900300235718553</v>
+        <v>0.9960509519842181</v>
       </c>
       <c r="P4">
-        <v>0.9960884468892496</v>
+        <v>0.9895918123054628</v>
       </c>
       <c r="Q4">
-        <v>0.9925192715834816</v>
+        <v>0.9940542159287814</v>
       </c>
       <c r="R4">
-        <v>0.9904980499205317</v>
+        <v>0.9934011214064159</v>
       </c>
       <c r="S4">
-        <v>0.9925192715834816</v>
+        <v>0.9904137014947567</v>
       </c>
       <c r="T4">
-        <v>0.9922479793420823</v>
+        <v>0.9934011214064159</v>
       </c>
       <c r="U4">
-        <v>0.9932979369950127</v>
+        <v>0.993065211023148</v>
       </c>
       <c r="V4">
-        <v>0.9930380624497671</v>
+        <v>0.9946561167401828</v>
+      </c>
+      <c r="W4">
+        <v>0.9934479023069727</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -732,67 +759,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000121100342424</v>
+        <v>1.001051086494181</v>
       </c>
       <c r="D5">
-        <v>0.97017685243416</v>
+        <v>0.9705521418085087</v>
       </c>
       <c r="E5">
-        <v>1.001764863108264</v>
+        <v>1.000695743726981</v>
       </c>
       <c r="F5">
-        <v>0.9914062404892988</v>
+        <v>0.9913908517389517</v>
       </c>
       <c r="G5">
-        <v>1.000121100342424</v>
+        <v>1.001051086494181</v>
       </c>
       <c r="H5">
-        <v>0.97017685243416</v>
+        <v>0.9705521418085087</v>
       </c>
       <c r="I5">
-        <v>1.000146457951804</v>
+        <v>0.9999661872960939</v>
       </c>
       <c r="J5">
-        <v>0.9949107214813059</v>
+        <v>0.9945407524359218</v>
       </c>
       <c r="K5">
-        <v>0.9979414512526268</v>
+        <v>0.9983385337921159</v>
       </c>
       <c r="L5">
-        <v>0.9812111895564901</v>
+        <v>0.9814411766989068</v>
       </c>
       <c r="M5">
-        <v>1.000112262792425</v>
+        <v>1.001042248944182</v>
       </c>
       <c r="N5">
-        <v>1.000121100342424</v>
+        <v>1.001051086494181</v>
       </c>
       <c r="O5">
-        <v>0.9859708577712121</v>
+        <v>1.000695743726981</v>
       </c>
       <c r="P5">
-        <v>0.9965855517987814</v>
+        <v>0.9856239427677447</v>
       </c>
       <c r="Q5">
-        <v>0.9906876052949493</v>
+        <v>0.9960432977329663</v>
       </c>
       <c r="R5">
-        <v>0.9877826520105742</v>
+        <v>0.9907663240098902</v>
       </c>
       <c r="S5">
-        <v>0.9906876052949493</v>
+        <v>0.9875462457581471</v>
       </c>
       <c r="T5">
-        <v>0.9908672640935366</v>
+        <v>0.9907663240098902</v>
       </c>
       <c r="U5">
-        <v>0.992718031343314</v>
+        <v>0.9909224559421556</v>
       </c>
       <c r="V5">
-        <v>0.9922098595770468</v>
+        <v>0.9929481820525605</v>
+      </c>
+      <c r="W5">
+        <v>0.9922470592489576</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -800,67 +830,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9968919227998498</v>
+        <v>0.9981523727028009</v>
       </c>
       <c r="D6">
-        <v>0.9929615552507878</v>
+        <v>0.9928956756264826</v>
       </c>
       <c r="E6">
-        <v>0.9935278109556436</v>
+        <v>0.9927967605002801</v>
       </c>
       <c r="F6">
-        <v>0.9934704274439244</v>
+        <v>0.9934011842924885</v>
       </c>
       <c r="G6">
-        <v>0.9968919227998498</v>
+        <v>0.9981523727028009</v>
       </c>
       <c r="H6">
-        <v>0.9929615552507878</v>
+        <v>0.9928956756264826</v>
       </c>
       <c r="I6">
-        <v>0.9944322100737901</v>
+        <v>0.9943708507230946</v>
       </c>
       <c r="J6">
-        <v>0.9942808605344955</v>
+        <v>0.9939596431722725</v>
       </c>
       <c r="K6">
-        <v>0.9956520721689465</v>
+        <v>0.9960668685529072</v>
       </c>
       <c r="L6">
-        <v>0.9923211718311323</v>
+        <v>0.9922132869407635</v>
       </c>
       <c r="M6">
-        <v>0.9968896608330408</v>
+        <v>0.9981573682987914</v>
       </c>
       <c r="N6">
-        <v>0.9968919227998498</v>
+        <v>0.9981523727028009</v>
       </c>
       <c r="O6">
-        <v>0.9932446831032157</v>
+        <v>0.9927967605002801</v>
       </c>
       <c r="P6">
-        <v>0.993499119199784</v>
+        <v>0.9928462180633814</v>
       </c>
       <c r="Q6">
-        <v>0.9944604296687604</v>
+        <v>0.9930989723963843</v>
       </c>
       <c r="R6">
-        <v>0.9933199312167852</v>
+        <v>0.9946149362765212</v>
       </c>
       <c r="S6">
-        <v>0.9944604296687604</v>
+        <v>0.9930312068064171</v>
       </c>
       <c r="T6">
-        <v>0.9942129291125514</v>
+        <v>0.9946149362765212</v>
       </c>
       <c r="U6">
-        <v>0.9947487278500111</v>
+        <v>0.994311498280513</v>
       </c>
       <c r="V6">
-        <v>0.9941922538823212</v>
+        <v>0.9950796731649707</v>
+      </c>
+      <c r="W6">
+        <v>0.9942320803138862</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -868,64 +901,351 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9932715404578597</v>
+        <v>0.9139503744091894</v>
       </c>
       <c r="D7">
-        <v>0.9938945841856555</v>
+        <v>1.607818008941707</v>
       </c>
       <c r="E7">
-        <v>0.9956860940398953</v>
+        <v>0.7423551603023174</v>
       </c>
       <c r="F7">
-        <v>0.9934079569945278</v>
+        <v>1.060944657175708</v>
       </c>
       <c r="G7">
-        <v>0.9932715404578597</v>
+        <v>0.9139503744091894</v>
       </c>
       <c r="H7">
-        <v>0.9938945841856555</v>
+        <v>1.607818008941707</v>
       </c>
       <c r="I7">
-        <v>0.9946744096261005</v>
+        <v>0.8039140004661657</v>
       </c>
       <c r="J7">
-        <v>0.9956769371794372</v>
+        <v>0.9821306644713012</v>
       </c>
       <c r="K7">
-        <v>0.9941687112364865</v>
+        <v>0.9148584059763234</v>
       </c>
       <c r="L7">
-        <v>0.9927591642822557</v>
+        <v>1.319693261450865</v>
       </c>
       <c r="M7">
-        <v>0.9932631326099548</v>
+        <v>0.9139503744091894</v>
       </c>
       <c r="N7">
-        <v>0.9932715404578597</v>
+        <v>0.9139503744091894</v>
       </c>
       <c r="O7">
-        <v>0.9947903391127754</v>
+        <v>0.7423551603023174</v>
       </c>
       <c r="P7">
-        <v>0.9945470255172115</v>
+        <v>1.175086584622012</v>
       </c>
       <c r="Q7">
-        <v>0.9942840728944701</v>
+        <v>0.9016499087390129</v>
       </c>
       <c r="R7">
-        <v>0.9943295450733595</v>
+        <v>1.088041181217738</v>
       </c>
       <c r="S7">
-        <v>0.9942840728944701</v>
+        <v>1.137039275473244</v>
       </c>
       <c r="T7">
-        <v>0.9940650439194845</v>
+        <v>1.088041181217738</v>
       </c>
       <c r="U7">
-        <v>0.9939063432271595</v>
+        <v>1.081267050207231</v>
       </c>
       <c r="V7">
-        <v>0.9941924247502774</v>
+        <v>1.047803715047622</v>
+      </c>
+      <c r="W7">
+        <v>1.043208066649197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.8188218511808876</v>
+      </c>
+      <c r="D8">
+        <v>0.973014291631896</v>
+      </c>
+      <c r="E8">
+        <v>0.9873733772220105</v>
+      </c>
+      <c r="F8">
+        <v>1.061432773325683</v>
+      </c>
+      <c r="G8">
+        <v>0.8188218511808876</v>
+      </c>
+      <c r="H8">
+        <v>0.973014291631896</v>
+      </c>
+      <c r="I8">
+        <v>0.9447071843883361</v>
+      </c>
+      <c r="J8">
+        <v>1.070354008295701</v>
+      </c>
+      <c r="K8">
+        <v>0.9781989437905825</v>
+      </c>
+      <c r="L8">
+        <v>1.051344657150992</v>
+      </c>
+      <c r="M8">
+        <v>0.8188218511808876</v>
+      </c>
+      <c r="N8">
+        <v>0.8188218511808876</v>
+      </c>
+      <c r="O8">
+        <v>0.9873733772220105</v>
+      </c>
+      <c r="P8">
+        <v>0.9801938344269532</v>
+      </c>
+      <c r="Q8">
+        <v>1.024403075273847</v>
+      </c>
+      <c r="R8">
+        <v>0.9264031733449313</v>
+      </c>
+      <c r="S8">
+        <v>1.00727348072653</v>
+      </c>
+      <c r="T8">
+        <v>0.9264031733449314</v>
+      </c>
+      <c r="U8">
+        <v>0.9601605733401193</v>
+      </c>
+      <c r="V8">
+        <v>0.9318928289082729</v>
+      </c>
+      <c r="W8">
+        <v>0.9856558858732611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2.88</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.66</v>
+      </c>
+      <c r="G9">
+        <v>2.88</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>1.29</v>
+      </c>
+      <c r="J9">
+        <v>0.41</v>
+      </c>
+      <c r="K9">
+        <v>1.51</v>
+      </c>
+      <c r="L9">
+        <v>0.24</v>
+      </c>
+      <c r="M9">
+        <v>2.88</v>
+      </c>
+      <c r="N9">
+        <v>2.88</v>
+      </c>
+      <c r="O9">
+        <v>0.65</v>
+      </c>
+      <c r="P9">
+        <v>0.375</v>
+      </c>
+      <c r="Q9">
+        <v>0.655</v>
+      </c>
+      <c r="R9">
+        <v>1.21</v>
+      </c>
+      <c r="S9">
+        <v>0.47</v>
+      </c>
+      <c r="T9">
+        <v>1.21</v>
+      </c>
+      <c r="U9">
+        <v>1.0725</v>
+      </c>
+      <c r="V9">
+        <v>1.434</v>
+      </c>
+      <c r="W9">
+        <v>0.9675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>1.98</v>
+      </c>
+      <c r="F10">
+        <v>0.71</v>
+      </c>
+      <c r="G10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.21</v>
+      </c>
+      <c r="I10">
+        <v>1.47</v>
+      </c>
+      <c r="J10">
+        <v>1.15</v>
+      </c>
+      <c r="K10">
+        <v>0.83</v>
+      </c>
+      <c r="L10">
+        <v>0.47</v>
+      </c>
+      <c r="M10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O10">
+        <v>1.98</v>
+      </c>
+      <c r="P10">
+        <v>1.095</v>
+      </c>
+      <c r="Q10">
+        <v>1.345</v>
+      </c>
+      <c r="R10">
+        <v>0.96</v>
+      </c>
+      <c r="S10">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="T10">
+        <v>0.96</v>
+      </c>
+      <c r="U10">
+        <v>0.8975</v>
+      </c>
+      <c r="V10">
+        <v>0.8559999999999999</v>
+      </c>
+      <c r="W10">
+        <v>0.93875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9975350210529828</v>
+      </c>
+      <c r="D11">
+        <v>0.9958735156987497</v>
+      </c>
+      <c r="E11">
+        <v>0.9910630543160649</v>
+      </c>
+      <c r="F11">
+        <v>0.9940494083606265</v>
+      </c>
+      <c r="G11">
+        <v>0.9975350210529828</v>
+      </c>
+      <c r="H11">
+        <v>0.9958735156987497</v>
+      </c>
+      <c r="I11">
+        <v>0.993206838784216</v>
+      </c>
+      <c r="J11">
+        <v>0.9939777443003533</v>
+      </c>
+      <c r="K11">
+        <v>0.9957064030097509</v>
+      </c>
+      <c r="L11">
+        <v>0.9938675598783352</v>
+      </c>
+      <c r="M11">
+        <v>0.9975220683420907</v>
+      </c>
+      <c r="N11">
+        <v>0.9975350210529828</v>
+      </c>
+      <c r="O11">
+        <v>0.9910630543160649</v>
+      </c>
+      <c r="P11">
+        <v>0.9934682850074072</v>
+      </c>
+      <c r="Q11">
+        <v>0.9925562313383457</v>
+      </c>
+      <c r="R11">
+        <v>0.9948238636892658</v>
+      </c>
+      <c r="S11">
+        <v>0.9936619927918137</v>
+      </c>
+      <c r="T11">
+        <v>0.9948238636892658</v>
+      </c>
+      <c r="U11">
+        <v>0.994630249857106</v>
+      </c>
+      <c r="V11">
+        <v>0.9952112040962813</v>
+      </c>
+      <c r="W11">
+        <v>0.994409943175135</v>
       </c>
     </row>
   </sheetData>
